--- a/foundPath/1000pathNodes.xlsx
+++ b/foundPath/1000pathNodes.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="20" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="44" uniqueCount="4">
   <si>
     <t>X</t>
   </si>

--- a/foundPath/1000pathNodes.xlsx
+++ b/foundPath/1000pathNodes.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="44" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="100" uniqueCount="4">
   <si>
     <t>X</t>
   </si>
@@ -70,7 +70,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D80"/>
+  <dimension ref="A1:D88"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -78,7 +78,7 @@
   <cols>
     <col min="1" max="1" width="4.140625" customWidth="true"/>
     <col min="2" max="2" width="5.140625" customWidth="true"/>
-    <col min="3" max="3" width="8.42578125" customWidth="true"/>
+    <col min="3" max="3" width="11.7109375" customWidth="true"/>
     <col min="4" max="4" width="11.7109375" customWidth="true"/>
   </cols>
   <sheetData>
@@ -98,7 +98,7 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>880</v>
+        <v>890</v>
       </c>
       <c r="B2" s="0">
         <v>630</v>
@@ -112,16 +112,16 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>890</v>
+        <v>900</v>
       </c>
       <c r="B3" s="0">
-        <v>630</v>
+        <v>650</v>
       </c>
       <c r="C3" s="0">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D3" s="0">
-        <v>2.2222222222222219</v>
+        <v>3.7267799624996498</v>
       </c>
     </row>
     <row r="4">
@@ -129,447 +129,447 @@
         <v>900</v>
       </c>
       <c r="B4" s="0">
-        <v>640</v>
+        <v>700</v>
       </c>
       <c r="C4" s="0">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D4" s="0">
-        <v>3.8860028838376279</v>
+        <v>7.2982085339282214</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>900</v>
+        <v>890</v>
       </c>
       <c r="B5" s="0">
-        <v>660</v>
+        <v>780</v>
       </c>
       <c r="C5" s="0">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D5" s="0">
-        <v>6.1082251060598507</v>
+        <v>10.962871146791199</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>910</v>
+        <v>900</v>
       </c>
       <c r="B6" s="0">
-        <v>680</v>
+        <v>870</v>
       </c>
       <c r="C6" s="0">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D6" s="0">
-        <v>8.2378136560596502</v>
+        <v>14.44571158453636</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>910</v>
+        <v>890</v>
       </c>
       <c r="B7" s="0">
-        <v>700</v>
+        <v>940</v>
       </c>
       <c r="C7" s="0">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D7" s="0">
-        <v>9.9769440908422595</v>
+        <v>17.218679353895372</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>920</v>
+        <v>860</v>
       </c>
       <c r="B8" s="0">
-        <v>720</v>
+        <v>980</v>
       </c>
       <c r="C8" s="0">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D8" s="0">
-        <v>11.765798472842089</v>
+        <v>19.39259239737363</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>930</v>
+        <v>820</v>
       </c>
       <c r="B9" s="0">
-        <v>750</v>
+        <v>1040</v>
       </c>
       <c r="C9" s="0">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D9" s="0">
-        <v>14.024568230105221</v>
+        <v>22.335899561017701</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>940</v>
+        <v>810</v>
       </c>
       <c r="B10" s="0">
-        <v>780</v>
+        <v>1040</v>
       </c>
       <c r="C10" s="0">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D10" s="0">
-        <v>16.283337987368348</v>
+        <v>22.674882611865161</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>920</v>
+        <v>780</v>
       </c>
       <c r="B11" s="0">
-        <v>800</v>
+        <v>1010</v>
       </c>
       <c r="C11" s="0">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D11" s="0">
-        <v>18.16895607053247</v>
+        <v>24.648203861688081</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>910</v>
+        <v>780</v>
       </c>
       <c r="B12" s="0">
-        <v>830</v>
+        <v>1000</v>
       </c>
       <c r="C12" s="0">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D12" s="0">
-        <v>20.029119400043289</v>
+        <v>25.3624895759738</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>910</v>
+        <v>780</v>
       </c>
       <c r="B13" s="0">
-        <v>870</v>
+        <v>990</v>
       </c>
       <c r="C13" s="0">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D13" s="0">
-        <v>22.19128156220545</v>
+        <v>25.9874895759738</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>920</v>
+        <v>780</v>
       </c>
       <c r="B14" s="0">
-        <v>890</v>
+        <v>980</v>
       </c>
       <c r="C14" s="0">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D14" s="0">
-        <v>23.30931555095534</v>
+        <v>26.54304513152935</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>930</v>
+        <v>780</v>
       </c>
       <c r="B15" s="0">
-        <v>930</v>
+        <v>970</v>
       </c>
       <c r="C15" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D15" s="0">
-        <v>25.370868363764171</v>
+        <v>27.04304513152935</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>910</v>
+        <v>780</v>
       </c>
       <c r="B16" s="0">
         <v>940</v>
       </c>
       <c r="C16" s="0">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D16" s="0">
-        <v>26.64862149376405</v>
+        <v>28.438393968738659</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
+        <v>770</v>
+      </c>
+      <c r="B17" s="0">
         <v>910</v>
-      </c>
-      <c r="B17" s="0">
-        <v>980</v>
       </c>
       <c r="C17" s="0">
         <v>22</v>
       </c>
       <c r="D17" s="0">
-        <v>28.75388465165879</v>
+        <v>29.87579290517883</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>900</v>
+        <v>710</v>
       </c>
       <c r="B18" s="0">
-        <v>990</v>
+        <v>850</v>
       </c>
       <c r="C18" s="0">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D18" s="0">
-        <v>29.42731968136026</v>
+        <v>33.73273898437818</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>880</v>
+        <v>620</v>
       </c>
       <c r="B19" s="0">
-        <v>1020</v>
+        <v>830</v>
       </c>
       <c r="C19" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D19" s="0">
-        <v>31.27632033544436</v>
+        <v>37.655949391736847</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>870</v>
+        <v>590</v>
       </c>
       <c r="B20" s="0">
-        <v>1030</v>
+        <v>850</v>
       </c>
       <c r="C20" s="0">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D20" s="0">
-        <v>32.061994536762739</v>
+        <v>38.991338753019811</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>840</v>
+        <v>500</v>
       </c>
       <c r="B21" s="0">
-        <v>1040</v>
+        <v>900</v>
       </c>
       <c r="C21" s="0">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D21" s="0">
-        <v>33.86901034257324</v>
+        <v>42.951196499553269</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>810</v>
+        <v>450</v>
       </c>
       <c r="B22" s="0">
-        <v>1030</v>
+        <v>910</v>
       </c>
       <c r="C22" s="0">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D22" s="0">
-        <v>35.533367005819763</v>
+        <v>44.990804304990377</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>770</v>
+        <v>340</v>
       </c>
       <c r="B23" s="0">
-        <v>1010</v>
+        <v>900</v>
       </c>
       <c r="C23" s="0">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D23" s="0">
-        <v>37.714896739965887</v>
+        <v>48.866369574178897</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>750</v>
+        <v>320</v>
       </c>
       <c r="B24" s="0">
-        <v>980</v>
+        <v>860</v>
       </c>
       <c r="C24" s="0">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="D24" s="0">
-        <v>39.563897394049988</v>
+        <v>51.497037783002177</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>740</v>
+        <v>320</v>
       </c>
       <c r="B25" s="0">
-        <v>950</v>
+        <v>850</v>
       </c>
       <c r="C25" s="0">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D25" s="0">
-        <v>41.4240607235608</v>
+        <v>53.035499321463718</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>740</v>
+        <v>340</v>
       </c>
       <c r="B26" s="0">
-        <v>910</v>
+        <v>830</v>
       </c>
       <c r="C26" s="0">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D26" s="0">
-        <v>43.586222885722961</v>
+        <v>55.298241021260672</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>720</v>
+        <v>330</v>
       </c>
       <c r="B27" s="0">
-        <v>870</v>
+        <v>750</v>
       </c>
       <c r="C27" s="0">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D27" s="0">
-        <v>45.489259462318529</v>
+        <v>59.231049678967281</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="B28" s="0">
-        <v>820</v>
+        <v>690</v>
       </c>
       <c r="C28" s="0">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D28" s="0">
-        <v>47.48376494644242</v>
+        <v>63.154260086325962</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>670</v>
+        <v>470</v>
       </c>
       <c r="B29" s="0">
-        <v>860</v>
+        <v>610</v>
       </c>
       <c r="C29" s="0">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D29" s="0">
-        <v>49.238150911354701</v>
+        <v>67.091351128079523</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>640</v>
+        <v>580</v>
       </c>
       <c r="B30" s="0">
-        <v>880</v>
+        <v>560</v>
       </c>
       <c r="C30" s="0">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D30" s="0">
-        <v>50.481444454618149</v>
+        <v>70.809211427647085</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>590</v>
+        <v>620</v>
       </c>
       <c r="B31" s="0">
-        <v>890</v>
+        <v>540</v>
       </c>
       <c r="C31" s="0">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D31" s="0">
-        <v>52.369970200393247</v>
+        <v>72.086964557646965</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>560</v>
+        <v>650</v>
       </c>
       <c r="B32" s="0">
-        <v>910</v>
+        <v>420</v>
       </c>
       <c r="C32" s="0">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D32" s="0">
-        <v>53.841623782215287</v>
+        <v>75.835242399117561</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>510</v>
+        <v>580</v>
       </c>
       <c r="B33" s="0">
-        <v>910</v>
+        <v>340</v>
       </c>
       <c r="C33" s="0">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="D33" s="0">
-        <v>55.924957115548629</v>
+        <v>79.157162965597138</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>460</v>
+        <v>490</v>
       </c>
       <c r="B34" s="0">
-        <v>920</v>
+        <v>350</v>
       </c>
       <c r="C34" s="0">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D34" s="0">
-        <v>57.964564920985737</v>
+        <v>82.708294392317697</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>410</v>
+        <v>450</v>
       </c>
       <c r="B35" s="0">
-        <v>940</v>
+        <v>400</v>
       </c>
       <c r="C35" s="0">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D35" s="0">
-        <v>59.959070405109642</v>
+        <v>86.474838061395843</v>
       </c>
     </row>
     <row r="36">
@@ -577,13 +577,13 @@
         <v>370</v>
       </c>
       <c r="B36" s="0">
-        <v>930</v>
+        <v>450</v>
       </c>
       <c r="C36" s="0">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D36" s="0">
-        <v>61.514959320437057</v>
+        <v>90.405663533086098</v>
       </c>
     </row>
     <row r="37">
@@ -591,615 +591,727 @@
         <v>330</v>
       </c>
       <c r="B37" s="0">
-        <v>890</v>
+        <v>470</v>
       </c>
       <c r="C37" s="0">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D37" s="0">
-        <v>63.690672493318743</v>
+        <v>91.803206019023463</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>330</v>
+        <v>220</v>
       </c>
       <c r="B38" s="0">
-        <v>840</v>
+        <v>420</v>
       </c>
       <c r="C38" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D38" s="0">
-        <v>65.476386779033035</v>
+        <v>95.764860436595455</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>350</v>
+        <v>210</v>
       </c>
       <c r="B39" s="0">
-        <v>780</v>
+        <v>320</v>
       </c>
       <c r="C39" s="0">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D39" s="0">
-        <v>67.735156536296159</v>
+        <v>99.705988131152665</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>380</v>
+        <v>230</v>
       </c>
       <c r="B40" s="0">
-        <v>730</v>
+        <v>290</v>
       </c>
       <c r="C40" s="0">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D40" s="0">
-        <v>70.021804338196276</v>
+        <v>101.0927386217157</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>430</v>
+        <v>240</v>
       </c>
       <c r="B41" s="0">
-        <v>710</v>
+        <v>270</v>
       </c>
       <c r="C41" s="0">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D41" s="0">
-        <v>72.093021571709542</v>
+        <v>101.8637965449915</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>440</v>
+        <v>290</v>
       </c>
       <c r="B42" s="0">
-        <v>700</v>
+        <v>180</v>
       </c>
       <c r="C42" s="0">
-        <v>29</v>
+        <v>22.952762208444842</v>
       </c>
       <c r="D42" s="0">
-        <v>72.589236856752734</v>
+        <v>105.7524058305502</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="B43" s="0">
-        <v>670</v>
+        <v>140</v>
       </c>
       <c r="C43" s="0">
-        <v>26</v>
+        <v>17.012510354304489</v>
       </c>
       <c r="D43" s="0">
-        <v>73.739156005904874</v>
+        <v>109.3610901149403</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>460</v>
+        <v>420</v>
       </c>
       <c r="B44" s="0">
-        <v>620</v>
+        <v>130</v>
       </c>
       <c r="C44" s="0">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D44" s="0">
-        <v>75.738771501431458</v>
+        <v>113.40025653877611</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>500</v>
+        <v>510</v>
       </c>
       <c r="B45" s="0">
-        <v>580</v>
+        <v>140</v>
       </c>
       <c r="C45" s="0">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D45" s="0">
-        <v>77.873433482371979</v>
+        <v>117.1733336796667</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>550</v>
+        <v>580</v>
       </c>
       <c r="B46" s="0">
-        <v>560</v>
+        <v>190</v>
       </c>
       <c r="C46" s="0">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D46" s="0">
-        <v>79.985262818503159</v>
+        <v>120.91347510012</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>570</v>
+        <v>660</v>
       </c>
       <c r="B47" s="0">
-        <v>530</v>
+        <v>180</v>
       </c>
       <c r="C47" s="0">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D47" s="0">
-        <v>81.519539956998472</v>
+        <v>124.66336242491001</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>590</v>
+        <v>740</v>
       </c>
       <c r="B48" s="0">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="C48" s="0">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D48" s="0">
-        <v>83.811099449396139</v>
+        <v>128.50951627106389</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>600</v>
+        <v>850</v>
       </c>
       <c r="B49" s="0">
-        <v>460</v>
+        <v>150</v>
       </c>
       <c r="C49" s="0">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D49" s="0">
-        <v>84.742794440021058</v>
+        <v>132.44115566795739</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>580</v>
+        <v>870</v>
       </c>
       <c r="B50" s="0">
-        <v>410</v>
+        <v>200</v>
       </c>
       <c r="C50" s="0">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="D50" s="0">
-        <v>86.940820891912693</v>
+        <v>134.02502767005581</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0">
-        <v>560</v>
+        <v>910</v>
       </c>
       <c r="B51" s="0">
-        <v>360</v>
+        <v>290</v>
       </c>
       <c r="C51" s="0">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D51" s="0">
-        <v>89.138847343804329</v>
+        <v>137.15164919443549</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0">
-        <v>530</v>
+        <v>920</v>
       </c>
       <c r="B52" s="0">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="C52" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D52" s="0">
-        <v>90.270922815502445</v>
+        <v>141.02721446362409</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0">
+        <v>920</v>
+      </c>
+      <c r="B53" s="0">
         <v>480</v>
       </c>
-      <c r="B53" s="0">
-        <v>380</v>
-      </c>
       <c r="C53" s="0">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D53" s="0">
-        <v>92.16045432677771</v>
+        <v>144.22721446362411</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0">
-        <v>420</v>
+        <v>900</v>
       </c>
       <c r="B54" s="0">
-        <v>410</v>
+        <v>540</v>
       </c>
       <c r="C54" s="0">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D54" s="0">
-        <v>94.434421761523254</v>
+        <v>147.3123634003737</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0">
-        <v>360</v>
+        <v>870</v>
       </c>
       <c r="B55" s="0">
-        <v>430</v>
+        <v>280</v>
       </c>
       <c r="C55" s="0">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="D55" s="0">
-        <v>96.693191518786378</v>
+        <v>105.5440658036449</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0">
-        <v>310</v>
+        <v>880</v>
       </c>
       <c r="B56" s="0">
-        <v>390</v>
+        <v>320</v>
       </c>
       <c r="C56" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D56" s="0">
-        <v>98.980021603583822</v>
+        <v>106.6736837832662</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0">
-        <v>310</v>
+        <v>880</v>
       </c>
       <c r="B57" s="0">
-        <v>320</v>
+        <v>390</v>
       </c>
       <c r="C57" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D57" s="0">
-        <v>101.2380861197129</v>
+        <v>108.8275299371124</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0">
-        <v>330</v>
+        <v>890</v>
       </c>
       <c r="B58" s="0">
-        <v>280</v>
+        <v>450</v>
       </c>
       <c r="C58" s="0">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D58" s="0">
-        <v>102.5932788333491</v>
+        <v>110.8551174472118</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0">
-        <v>390</v>
+        <v>900</v>
       </c>
       <c r="B59" s="0">
-        <v>240</v>
+        <v>500</v>
       </c>
       <c r="C59" s="0">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D59" s="0">
-        <v>104.81207961825</v>
+        <v>112.42404652831721</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0">
-        <v>430</v>
+        <v>900</v>
       </c>
       <c r="B60" s="0">
-        <v>190</v>
+        <v>510</v>
       </c>
       <c r="C60" s="0">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D60" s="0">
-        <v>106.9114646141296</v>
+        <v>112.713901600781</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="0">
-        <v>480</v>
+        <v>900</v>
       </c>
       <c r="B61" s="0">
-        <v>150</v>
+        <v>520</v>
       </c>
       <c r="C61" s="0">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D61" s="0">
-        <v>109.0820152030899</v>
+        <v>113.00375667324479</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="0">
-        <v>540</v>
+        <v>860</v>
       </c>
       <c r="B62" s="0">
-        <v>140</v>
+        <v>250</v>
       </c>
       <c r="C62" s="0">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D62" s="0">
-        <v>111.2939288504711</v>
+        <v>118.4741357446979</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="0">
-        <v>590</v>
+        <v>930</v>
       </c>
       <c r="B63" s="0">
-        <v>160</v>
+        <v>290</v>
       </c>
       <c r="C63" s="0">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D63" s="0">
-        <v>113.3651460839844</v>
+        <v>120.6829734839577</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="0">
-        <v>640</v>
+        <v>940</v>
       </c>
       <c r="B64" s="0">
-        <v>150</v>
+        <v>370</v>
       </c>
       <c r="C64" s="0">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="D64" s="0">
-        <v>115.4047538894215</v>
+        <v>122.861962064579</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="0">
-        <v>690</v>
+        <v>900</v>
       </c>
       <c r="B65" s="0">
-        <v>130</v>
+        <v>430</v>
       </c>
       <c r="C65" s="0">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D65" s="0">
-        <v>117.5588198122753</v>
+        <v>125.0471446557693</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="0">
-        <v>740</v>
+        <v>900</v>
       </c>
       <c r="B66" s="0">
-        <v>120</v>
+        <v>480</v>
       </c>
       <c r="C66" s="0">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D66" s="0">
-        <v>119.5584353078019</v>
+        <v>126.93393710859949</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>790</v>
+        <v>880</v>
       </c>
       <c r="B67" s="0">
-        <v>120</v>
+        <v>520</v>
       </c>
       <c r="C67" s="0">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D67" s="0">
-        <v>121.5992516343325</v>
+        <v>129.01400034348299</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>840</v>
+        <v>960</v>
       </c>
       <c r="B68" s="0">
-        <v>120</v>
+        <v>210</v>
       </c>
       <c r="C68" s="0">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D68" s="0">
-        <v>123.7731646778107</v>
+        <v>130.47559541745539</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="0">
-        <v>890</v>
+        <v>950</v>
       </c>
       <c r="B69" s="0">
-        <v>130</v>
+        <v>260</v>
       </c>
       <c r="C69" s="0">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D69" s="0">
-        <v>126.0393955727409</v>
+        <v>132.55682787198299</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="0">
-        <v>900</v>
+        <v>920</v>
       </c>
       <c r="B70" s="0">
-        <v>140</v>
+        <v>300</v>
       </c>
       <c r="C70" s="0">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D70" s="0">
-        <v>126.64118857800599</v>
+        <v>134.59764419851359</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="0">
-        <v>920</v>
+        <v>890</v>
       </c>
       <c r="B71" s="0">
-        <v>170</v>
+        <v>360</v>
       </c>
       <c r="C71" s="0">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D71" s="0">
-        <v>128.2088195673382</v>
+        <v>136.87161163325919</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="0">
-        <v>930</v>
+        <v>910</v>
       </c>
       <c r="B72" s="0">
-        <v>210</v>
+        <v>420</v>
       </c>
       <c r="C72" s="0">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D72" s="0">
-        <v>130.1722031985847</v>
+        <v>139.1303813905223</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="0">
-        <v>960</v>
+        <v>890</v>
       </c>
       <c r="B73" s="0">
-        <v>230</v>
+        <v>480</v>
       </c>
       <c r="C73" s="0">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D73" s="0">
-        <v>131.81109014197739</v>
+        <v>141.43021968882661</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="0">
-        <v>970</v>
+        <v>890</v>
       </c>
       <c r="B74" s="0">
-        <v>270</v>
+        <v>530</v>
       </c>
       <c r="C74" s="0">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D74" s="0">
-        <v>133.72881368877631</v>
+        <v>143.1251349430639</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="0">
-        <v>960</v>
+        <v>880</v>
       </c>
       <c r="B75" s="0">
-        <v>320</v>
+        <v>490</v>
       </c>
       <c r="C75" s="0">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D75" s="0">
-        <v>135.99504458370649</v>
+        <v>118.8861222093028</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="0">
-        <v>940</v>
+        <v>890</v>
       </c>
       <c r="B76" s="0">
-        <v>360</v>
+        <v>520</v>
       </c>
       <c r="C76" s="0">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D76" s="0">
-        <v>137.68264305729119</v>
+        <v>120.467261039387</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="0">
-        <v>950</v>
+        <v>760</v>
       </c>
       <c r="B77" s="0">
-        <v>410</v>
+        <v>170</v>
       </c>
       <c r="C77" s="0">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D77" s="0">
-        <v>139.64380440867299</v>
+        <v>113.112252264885</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="0">
-        <v>960</v>
+        <v>770</v>
       </c>
       <c r="B78" s="0">
-        <v>460</v>
+        <v>180</v>
       </c>
       <c r="C78" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D78" s="0">
-        <v>141.4979933227068</v>
+        <v>113.5684501882312</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="0">
-        <v>930</v>
+        <v>820</v>
       </c>
       <c r="B79" s="0">
-        <v>490</v>
+        <v>210</v>
       </c>
       <c r="C79" s="0">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D79" s="0">
-        <v>143.01322213953509</v>
+        <v>115.5791232554192</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="0">
+        <v>870</v>
+      </c>
+      <c r="B80" s="0">
+        <v>240</v>
+      </c>
+      <c r="C80" s="0">
+        <v>26</v>
+      </c>
+      <c r="D80" s="0">
+        <v>117.6994693989993</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0">
         <v>890</v>
       </c>
-      <c r="B80" s="0">
-        <v>520</v>
-      </c>
-      <c r="C80" s="0">
-        <v>20</v>
-      </c>
-      <c r="D80" s="0">
-        <v>145.18713518301331</v>
+      <c r="B81" s="0">
+        <v>270</v>
+      </c>
+      <c r="C81" s="0">
+        <v>30</v>
+      </c>
+      <c r="D81" s="0">
+        <v>118.9871662830936</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="0">
+        <v>910</v>
+      </c>
+      <c r="B82" s="0">
+        <v>310</v>
+      </c>
+      <c r="C82" s="0">
+        <v>33</v>
+      </c>
+      <c r="D82" s="0">
+        <v>120.4068919830935</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0">
+        <v>870</v>
+      </c>
+      <c r="B83" s="0">
+        <v>370</v>
+      </c>
+      <c r="C83" s="0">
+        <v>33</v>
+      </c>
+      <c r="D83" s="0">
+        <v>122.5920745742838</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0">
+        <v>880</v>
+      </c>
+      <c r="B84" s="0">
+        <v>400</v>
+      </c>
+      <c r="C84" s="0">
+        <v>31</v>
+      </c>
+      <c r="D84" s="0">
+        <v>123.5802863430864</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0">
+        <v>880</v>
+      </c>
+      <c r="B85" s="0">
+        <v>410</v>
+      </c>
+      <c r="C85" s="0">
+        <v>32</v>
+      </c>
+      <c r="D85" s="0">
+        <v>123.8977466605467</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="0">
+        <v>880</v>
+      </c>
+      <c r="B86" s="0">
+        <v>460</v>
+      </c>
+      <c r="C86" s="0">
+        <v>28</v>
+      </c>
+      <c r="D86" s="0">
+        <v>125.5644133272134</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0">
+        <v>890</v>
+      </c>
+      <c r="B87" s="0">
+        <v>510</v>
+      </c>
+      <c r="C87" s="0">
+        <v>26</v>
+      </c>
+      <c r="D87" s="0">
+        <v>127.4529390729885</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0">
+        <v>890</v>
+      </c>
+      <c r="B88" s="0">
+        <v>530</v>
+      </c>
+      <c r="C88" s="0">
+        <v>28</v>
+      </c>
+      <c r="D88" s="0">
+        <v>128.1936798137292</v>
       </c>
     </row>
   </sheetData>
